--- a/data/var_2022.xlsx
+++ b/data/var_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6F442-37BC-9D43-B674-6C4616A9D2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E42D4-AB9B-7F4D-9DD5-2AB36AF1C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14800" xr2:uid="{EC25B9EA-FDAB-9743-94C4-44DFC8A3E745}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4702" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="376">
   <si>
     <t>school_id</t>
   </si>
@@ -1119,6 +1119,51 @@
   </si>
   <si>
     <t>school_descriptor</t>
+  </si>
+  <si>
+    <t>leaps_rank_high_expectations</t>
+  </si>
+  <si>
+    <t>leaps_rank_whole_child</t>
+  </si>
+  <si>
+    <t>leaps_rank_rigorous_learning</t>
+  </si>
+  <si>
+    <t>leaps_rank_relevance</t>
+  </si>
+  <si>
+    <t>leaps_rank_affirmation</t>
+  </si>
+  <si>
+    <t>leaps_rank_social_consciousness</t>
+  </si>
+  <si>
+    <t>leaps_rank_connection</t>
+  </si>
+  <si>
+    <t>leaps_rank_customization</t>
+  </si>
+  <si>
+    <t>leaps_rank_self_direction</t>
+  </si>
+  <si>
+    <t>leaps_rank_anytime_anywhere</t>
+  </si>
+  <si>
+    <t>leadership_diversity</t>
+  </si>
+  <si>
+    <t>teaching_diversity</t>
+  </si>
+  <si>
+    <t>Biracial</t>
+  </si>
+  <si>
+    <t>leader1_race</t>
+  </si>
+  <si>
+    <t>leader1_gender</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED279A-822D-8344-BAC8-3150E9380219}">
-  <dimension ref="A1:AX162"/>
+  <dimension ref="A1:BJ162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AY1"/>
+    <sheetView tabSelected="1" topLeftCell="AX125" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1:BH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1525,10 +1570,14 @@
     <col min="36" max="45" width="16.6640625" customWidth="1"/>
     <col min="46" max="47" width="10.6640625" customWidth="1"/>
     <col min="48" max="48" width="19" customWidth="1"/>
-    <col min="49" max="50" width="10.6640625" customWidth="1"/>
+    <col min="49" max="58" width="10.6640625" customWidth="1"/>
+    <col min="59" max="59" width="18" customWidth="1"/>
+    <col min="60" max="60" width="25.6640625" customWidth="1"/>
+    <col min="61" max="61" width="16" customWidth="1"/>
+    <col min="62" max="62" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="113" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="113" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,10 +1722,50 @@
       <c r="AV1" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
+      <c r="AW1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -1812,9 +1901,50 @@
       <c r="AV2" s="4">
         <v>2</v>
       </c>
-      <c r="AX2" s="4"/>
+      <c r="AW2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>8</v>
       </c>
@@ -1956,9 +2086,50 @@
       <c r="AV3" s="4">
         <v>3</v>
       </c>
-      <c r="AW3" s="4"/>
+      <c r="AW3" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>11</v>
       </c>
@@ -2086,9 +2257,47 @@
       <c r="AV4" s="4">
         <v>3</v>
       </c>
-      <c r="AW4" s="4"/>
+      <c r="AW4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>16</v>
       </c>
@@ -2224,10 +2433,50 @@
       <c r="AV5" s="4">
         <v>1</v>
       </c>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
+      <c r="AW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>21</v>
       </c>
@@ -2363,10 +2612,50 @@
       <c r="AV6" s="4">
         <v>1</v>
       </c>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
+      <c r="AW6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -2500,10 +2789,50 @@
         <v>35</v>
       </c>
       <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC7" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI7" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ7" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>26</v>
       </c>
@@ -2639,10 +2968,50 @@
       <c r="AV8" s="4">
         <v>1</v>
       </c>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AW8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>27</v>
       </c>
@@ -2778,10 +3147,50 @@
       <c r="AV9" s="4">
         <v>1</v>
       </c>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
+      <c r="AW9" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>7</v>
+      </c>
+      <c r="BB9" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41</v>
       </c>
@@ -2907,10 +3316,50 @@
         <v>96</v>
       </c>
       <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
+      <c r="AW10" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>42</v>
       </c>
@@ -3046,10 +3495,50 @@
       <c r="AV11" s="4">
         <v>1</v>
       </c>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
+      <c r="AW11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH11" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI11" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ11" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44</v>
       </c>
@@ -3185,9 +3674,50 @@
       <c r="AV12" s="4">
         <v>2</v>
       </c>
-      <c r="AX12" s="4"/>
+      <c r="AW12" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB12" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC12" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH12" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI12" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ12" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45</v>
       </c>
@@ -3305,9 +3835,50 @@
       <c r="AV13" s="4">
         <v>2</v>
       </c>
-      <c r="AX13" s="4"/>
+      <c r="AW13" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH13" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI13" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>47</v>
       </c>
@@ -3449,10 +4020,50 @@
       <c r="AV14" s="4">
         <v>1</v>
       </c>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
+      <c r="AW14" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB14" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH14" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI14" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ14" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>52</v>
       </c>
@@ -3561,10 +4172,50 @@
       <c r="AV15" s="4">
         <v>1</v>
       </c>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
+      <c r="AW15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>67</v>
       </c>
@@ -3706,9 +4357,50 @@
       <c r="AV16" s="4">
         <v>2</v>
       </c>
-      <c r="AX16" s="4"/>
+      <c r="AW16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>8</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>9</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>69</v>
       </c>
@@ -3850,10 +4542,50 @@
       <c r="AV17" s="4">
         <v>1</v>
       </c>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
+      <c r="AW17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD17" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ17" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>70</v>
       </c>
@@ -3995,9 +4727,50 @@
       <c r="AV18" s="4">
         <v>2</v>
       </c>
-      <c r="AX18" s="4"/>
+      <c r="AW18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA18" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC18" s="4">
+        <v>8</v>
+      </c>
+      <c r="BD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ18" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>71</v>
       </c>
@@ -4133,10 +4906,50 @@
       <c r="AV19" s="4">
         <v>1</v>
       </c>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
+      <c r="AW19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI19" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ19" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -4272,10 +5085,50 @@
       <c r="AV20" s="4">
         <v>1</v>
       </c>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="AW20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH20" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI20" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ20" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>81</v>
       </c>
@@ -4417,9 +5270,50 @@
       <c r="AV21" s="4">
         <v>2</v>
       </c>
-      <c r="AX21" s="4"/>
+      <c r="AW21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ21" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ21" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>83</v>
       </c>
@@ -4561,9 +5455,50 @@
       <c r="AV22" s="4">
         <v>2</v>
       </c>
-      <c r="AX22" s="4"/>
+      <c r="AW22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>84</v>
       </c>
@@ -4699,10 +5634,50 @@
       <c r="AV23" s="4">
         <v>1</v>
       </c>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
+      <c r="AW23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>10</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>9</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>85</v>
       </c>
@@ -4844,9 +5819,50 @@
       <c r="AV24" s="4">
         <v>2</v>
       </c>
-      <c r="AX24" s="4"/>
+      <c r="AW24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH24" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI24" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ24" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>91</v>
       </c>
@@ -4988,9 +6004,50 @@
       <c r="AV25" s="4">
         <v>2</v>
       </c>
-      <c r="AX25" s="4"/>
+      <c r="AW25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB25" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH25" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>94</v>
       </c>
@@ -5126,10 +6183,50 @@
       <c r="AV26" s="4">
         <v>1</v>
       </c>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
+      <c r="AW26" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>9</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA26" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB26" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC26" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>5</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>97</v>
       </c>
@@ -5265,10 +6362,50 @@
       <c r="AV27" s="4">
         <v>1</v>
       </c>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
+      <c r="AW27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI27" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ27" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>98</v>
       </c>
@@ -5410,9 +6547,50 @@
       <c r="AV28" s="4">
         <v>2</v>
       </c>
-      <c r="AX28" s="4"/>
+      <c r="AW28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH28" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI28" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ28" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>100</v>
       </c>
@@ -5548,9 +6726,50 @@
       <c r="AV29" s="4">
         <v>2</v>
       </c>
-      <c r="AX29" s="4"/>
+      <c r="AW29" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA29" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="4">
+        <v>5</v>
+      </c>
+      <c r="BF29" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH29" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI29" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ29" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>101</v>
       </c>
@@ -5692,9 +6911,50 @@
       <c r="AV30" s="4">
         <v>2</v>
       </c>
-      <c r="AX30" s="4"/>
+      <c r="AW30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH30" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI30" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ30" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>105</v>
       </c>
@@ -5830,10 +7090,50 @@
       <c r="AV31" s="4">
         <v>1</v>
       </c>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="4"/>
+      <c r="AW31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF31" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ31" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>119</v>
       </c>
@@ -5969,10 +7269,50 @@
       <c r="AV32" s="4">
         <v>1</v>
       </c>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="4"/>
+      <c r="AW32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>7</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC32" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE32" s="4">
+        <v>9</v>
+      </c>
+      <c r="BF32" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG32" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH32" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI32" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ32" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>120</v>
       </c>
@@ -6114,9 +7454,50 @@
       <c r="AV33" s="4">
         <v>2</v>
       </c>
-      <c r="AX33" s="4"/>
+      <c r="AW33" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>9</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC33" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>8</v>
+      </c>
+      <c r="BE33" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF33" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI33" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ33" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>122</v>
       </c>
@@ -6252,9 +7633,50 @@
       <c r="AV34" s="4">
         <v>2</v>
       </c>
-      <c r="AX34" s="4"/>
+      <c r="AW34" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>7</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI34" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>132</v>
       </c>
@@ -6390,10 +7812,50 @@
       <c r="AV35" s="4">
         <v>1</v>
       </c>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
+      <c r="AW35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI35" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>138</v>
       </c>
@@ -6529,10 +7991,50 @@
       <c r="AV36" s="4">
         <v>1</v>
       </c>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
+      <c r="AW36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC36" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF36" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH36" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI36" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ36" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>139</v>
       </c>
@@ -6668,9 +8170,50 @@
       <c r="AV37" s="4">
         <v>2</v>
       </c>
-      <c r="AX37" s="4"/>
+      <c r="AW37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE37" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH37" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI37" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ37" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>140</v>
       </c>
@@ -6806,10 +8349,50 @@
       <c r="AV38" s="4">
         <v>1</v>
       </c>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
+      <c r="AW38" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB38" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC38" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>7</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>10</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH38" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ38" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>141</v>
       </c>
@@ -6945,10 +8528,50 @@
       <c r="AV39" s="4">
         <v>1</v>
       </c>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
+      <c r="AW39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA39" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB39" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD39" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF39" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG39" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH39" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ39" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>144</v>
       </c>
@@ -7090,10 +8713,50 @@
       <c r="AV40" s="4">
         <v>1</v>
       </c>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
+      <c r="AW40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD40" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ40" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>146</v>
       </c>
@@ -7229,10 +8892,50 @@
       <c r="AV41" s="4">
         <v>1</v>
       </c>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
+      <c r="AW41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ41" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF41" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH41" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI41" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ41" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>150</v>
       </c>
@@ -7338,9 +9041,50 @@
       <c r="AV42" s="4">
         <v>3</v>
       </c>
-      <c r="AW42" s="4"/>
+      <c r="AW42" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX42" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY42" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB42" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC42" s="4">
+        <v>9</v>
+      </c>
+      <c r="BD42" s="4">
+        <v>10</v>
+      </c>
+      <c r="BE42" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF42" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG42" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH42" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI42" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ42" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>157</v>
       </c>
@@ -7476,10 +9220,50 @@
       <c r="AV43" s="4">
         <v>1</v>
       </c>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="4"/>
+      <c r="AW43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA43" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG43" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH43" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI43" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ43" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>165</v>
       </c>
@@ -7615,9 +9399,50 @@
       <c r="AV44" s="4">
         <v>2</v>
       </c>
-      <c r="AX44" s="4"/>
+      <c r="AW44" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX44" s="4">
+        <v>8</v>
+      </c>
+      <c r="AY44" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ44" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA44" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB44" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC44" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD44" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE44" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG44" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH44" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI44" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ44" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>172</v>
       </c>
@@ -7753,9 +9578,50 @@
       <c r="AV45" s="4">
         <v>2</v>
       </c>
-      <c r="AX45" s="4"/>
+      <c r="AW45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ45" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE45" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG45" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH45" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI45" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ45" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>180</v>
       </c>
@@ -7897,9 +9763,50 @@
       <c r="AV46" s="4">
         <v>2</v>
       </c>
-      <c r="AX46" s="4"/>
+      <c r="AW46" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX46" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY46" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ46" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC46" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD46" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE46" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF46" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG46" s="4">
+        <v>5</v>
+      </c>
+      <c r="BH46" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI46" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ46" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>189</v>
       </c>
@@ -8035,10 +9942,50 @@
       <c r="AV47" s="4">
         <v>1</v>
       </c>
-      <c r="AW47" s="4"/>
-      <c r="AX47" s="4"/>
+      <c r="AW47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY47" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA47" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB47" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC47" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE47" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG47" s="4">
+        <v>5</v>
+      </c>
+      <c r="BH47" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI47" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ47" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>197</v>
       </c>
@@ -8174,9 +10121,50 @@
       <c r="AV48" s="4">
         <v>2</v>
       </c>
-      <c r="AX48" s="4"/>
+      <c r="AW48" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG48" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH48" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI48" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>204</v>
       </c>
@@ -8310,9 +10298,50 @@
         <v>356</v>
       </c>
       <c r="AV49" s="4"/>
-      <c r="AX49" s="4"/>
+      <c r="AW49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX49" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY49" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ49" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA49" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB49" s="4">
+        <v>9</v>
+      </c>
+      <c r="BC49" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD49" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE49" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF49" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG49" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH49" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI49" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ49" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>209</v>
       </c>
@@ -8454,9 +10483,50 @@
       <c r="AV50" s="4">
         <v>2</v>
       </c>
-      <c r="AX50" s="4"/>
+      <c r="AW50" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY50" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ50" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA50" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB50" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC50" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH50" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI50" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ50" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>225</v>
       </c>
@@ -8592,10 +10662,50 @@
       <c r="AV51" s="4">
         <v>1</v>
       </c>
-      <c r="AW51" s="4"/>
-      <c r="AX51" s="4"/>
+      <c r="AW51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY51" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ51" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH51" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI51" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ51" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>228</v>
       </c>
@@ -8731,10 +10841,50 @@
       <c r="AV52" s="4">
         <v>1</v>
       </c>
-      <c r="AW52" s="4"/>
-      <c r="AX52" s="4"/>
+      <c r="AW52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG52" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH52" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI52" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ52" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>234</v>
       </c>
@@ -8870,9 +11020,50 @@
       <c r="AV53" s="4">
         <v>2</v>
       </c>
-      <c r="AX53" s="4"/>
+      <c r="AW53" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE53" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF53" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG53" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH53" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI53" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ53" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>235</v>
       </c>
@@ -9008,10 +11199,50 @@
       <c r="AV54" s="4">
         <v>1</v>
       </c>
-      <c r="AW54" s="4"/>
-      <c r="AX54" s="4"/>
+      <c r="AW54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA54" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB54" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG54" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH54" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI54" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ54" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>236</v>
       </c>
@@ -9147,9 +11378,50 @@
       <c r="AV55" s="4">
         <v>2</v>
       </c>
-      <c r="AX55" s="4"/>
+      <c r="AW55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY55" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ55" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA55" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD55" s="4">
+        <v>7</v>
+      </c>
+      <c r="BE55" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG55" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH55" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI55" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ55" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>237</v>
       </c>
@@ -9285,9 +11557,50 @@
       <c r="AV56" s="4">
         <v>2</v>
       </c>
-      <c r="AX56" s="4"/>
+      <c r="AW56" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX56" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG56" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH56" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI56" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ56" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>241</v>
       </c>
@@ -9423,10 +11736,50 @@
       <c r="AV57" s="4">
         <v>1</v>
       </c>
-      <c r="AW57" s="4"/>
-      <c r="AX57" s="4"/>
+      <c r="AW57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF57" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG57" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH57" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI57" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ57" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>246</v>
       </c>
@@ -9568,9 +11921,50 @@
       <c r="AV58" s="4">
         <v>3</v>
       </c>
-      <c r="AW58" s="4"/>
+      <c r="AW58" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD58" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH58" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI58" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ58" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>247</v>
       </c>
@@ -9670,10 +12064,50 @@
       <c r="AV59" s="4">
         <v>1</v>
       </c>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
+      <c r="AW59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX59" s="4">
+        <v>10</v>
+      </c>
+      <c r="AY59" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ59" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA59" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB59" s="4">
+        <v>9</v>
+      </c>
+      <c r="BC59" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD59" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE59" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF59" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG59" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH59" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI59" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ59" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>251</v>
       </c>
@@ -9782,9 +12216,50 @@
       <c r="AV60" s="4">
         <v>3</v>
       </c>
-      <c r="AW60" s="4"/>
+      <c r="AW60" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX60" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY60" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ60" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA60" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB60" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC60" s="4">
+        <v>8</v>
+      </c>
+      <c r="BD60" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE60" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF60" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG60" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH60" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI60" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ60" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>266</v>
       </c>
@@ -9890,9 +12365,50 @@
       <c r="AV61" s="4">
         <v>3</v>
       </c>
-      <c r="AW61" s="4"/>
+      <c r="AW61" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY61" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ61" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA61" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB61" s="4">
+        <v>9</v>
+      </c>
+      <c r="BC61" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD61" s="4">
+        <v>7</v>
+      </c>
+      <c r="BE61" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF61" s="4">
+        <v>8</v>
+      </c>
+      <c r="BG61" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH61" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI61" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ61" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>275</v>
       </c>
@@ -10034,10 +12550,50 @@
       <c r="AV62" s="4">
         <v>1</v>
       </c>
-      <c r="AW62" s="4"/>
-      <c r="AX62" s="4"/>
+      <c r="AW62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ62" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA62" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD62" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE62" s="4">
+        <v>5</v>
+      </c>
+      <c r="BF62" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG62" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH62" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI62" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ62" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>276</v>
       </c>
@@ -10158,10 +12714,50 @@
       <c r="AV63" s="4">
         <v>1</v>
       </c>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
+      <c r="AW63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA63" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD63" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE63" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF63" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG63" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH63" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI63" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ63" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>281</v>
       </c>
@@ -10297,9 +12893,50 @@
       <c r="AV64" s="4">
         <v>2</v>
       </c>
-      <c r="AX64" s="4"/>
+      <c r="AW64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX64" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB64" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC64" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD64" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE64" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF64" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG64" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH64" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI64" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ64" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>292</v>
       </c>
@@ -10435,9 +13072,50 @@
       <c r="AV65" s="4">
         <v>2</v>
       </c>
-      <c r="AX65" s="4"/>
+      <c r="AW65" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB65" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD65" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE65" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF65" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG65" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH65" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI65" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ65" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>293</v>
       </c>
@@ -10540,10 +13218,50 @@
       <c r="AV66" s="4">
         <v>1</v>
       </c>
-      <c r="AW66" s="4"/>
-      <c r="AX66" s="4"/>
+      <c r="AW66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF66" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG66" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH66" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ66" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>296</v>
       </c>
@@ -10685,10 +13403,50 @@
       <c r="AV67" s="4">
         <v>1</v>
       </c>
-      <c r="AW67" s="4"/>
-      <c r="AX67" s="4"/>
+      <c r="AW67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF67" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH67" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI67" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ67" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>299</v>
       </c>
@@ -10816,10 +13574,50 @@
       <c r="AV68" s="4">
         <v>1</v>
       </c>
-      <c r="AW68" s="4"/>
-      <c r="AX68" s="4"/>
+      <c r="AW68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX68" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY68" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ68" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA68" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB68" s="4">
+        <v>9</v>
+      </c>
+      <c r="BC68" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD68" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE68" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF68" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG68" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH68" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI68" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ68" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>302</v>
       </c>
@@ -10961,10 +13759,50 @@
       <c r="AV69" s="4">
         <v>1</v>
       </c>
-      <c r="AW69" s="4"/>
-      <c r="AX69" s="4"/>
+      <c r="AW69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ69" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA69" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB69" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC69" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD69" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE69" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF69" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG69" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH69" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI69" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ69" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>303</v>
       </c>
@@ -11106,9 +13944,50 @@
       <c r="AV70" s="4">
         <v>2</v>
       </c>
-      <c r="AX70" s="4"/>
+      <c r="AW70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC70" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD70" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE70" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH70" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI70" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ70" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>306</v>
       </c>
@@ -11244,9 +14123,50 @@
       <c r="AV71" s="4">
         <v>2</v>
       </c>
-      <c r="AX71" s="4"/>
+      <c r="AW71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY71" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ71" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA71" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB71" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC71" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD71" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE71" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF71" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG71" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH71" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI71" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ71" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>312</v>
       </c>
@@ -11382,10 +14302,50 @@
       <c r="AV72" s="4">
         <v>1</v>
       </c>
-      <c r="AW72" s="4"/>
-      <c r="AX72" s="4"/>
+      <c r="AW72" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX72" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY72" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ72" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA72" s="4">
+        <v>7</v>
+      </c>
+      <c r="BB72" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC72" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD72" s="4">
+        <v>8</v>
+      </c>
+      <c r="BE72" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF72" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG72" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH72" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI72" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ72" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>319</v>
       </c>
@@ -11521,10 +14481,50 @@
       <c r="AV73" s="4">
         <v>1</v>
       </c>
-      <c r="AW73" s="4"/>
-      <c r="AX73" s="4"/>
+      <c r="AW73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ73" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA73" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD73" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH73" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI73" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ73" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>323</v>
       </c>
@@ -11660,9 +14660,50 @@
       <c r="AV74" s="4">
         <v>2</v>
       </c>
-      <c r="AX74" s="4"/>
+      <c r="AW74" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX74" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY74" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ74" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA74" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB74" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC74" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD74" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE74" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF74" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG74" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH74" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI74" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ74" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>333</v>
       </c>
@@ -11804,9 +14845,50 @@
       <c r="AV75" s="4">
         <v>2</v>
       </c>
-      <c r="AX75" s="4"/>
+      <c r="AW75" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX75" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY75" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ75" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA75" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB75" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC75" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD75" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE75" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF75" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG75" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH75" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI75" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ75" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>345</v>
       </c>
@@ -11948,9 +15030,50 @@
       <c r="AV76" s="4">
         <v>3</v>
       </c>
-      <c r="AW76" s="4"/>
+      <c r="AW76" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX76" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY76" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ76" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA76" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB76" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC76" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD76" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE76" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF76" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG76" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH76" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI76" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ76" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>348</v>
       </c>
@@ -12086,10 +15209,50 @@
       <c r="AV77" s="4">
         <v>1</v>
       </c>
-      <c r="AW77" s="4"/>
-      <c r="AX77" s="4"/>
+      <c r="AW77" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY77" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ77" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA77" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB77" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC77" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD77" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE77" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF77" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG77" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH77" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI77" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ77" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>353</v>
       </c>
@@ -12225,9 +15388,50 @@
       <c r="AV78" s="4">
         <v>2</v>
       </c>
-      <c r="AX78" s="4"/>
+      <c r="AW78" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX78" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY78" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ78" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA78" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB78" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC78" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD78" s="4">
+        <v>9</v>
+      </c>
+      <c r="BE78" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF78" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG78" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH78" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI78" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ78" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>356</v>
       </c>
@@ -12369,10 +15573,50 @@
       <c r="AV79" s="4">
         <v>1</v>
       </c>
-      <c r="AW79" s="4"/>
-      <c r="AX79" s="4"/>
+      <c r="AW79" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY79" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ79" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA79" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB79" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC79" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD79" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE79" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF79" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG79" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH79" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI79" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ79" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>358</v>
       </c>
@@ -12514,9 +15758,50 @@
       <c r="AV80" s="4">
         <v>3</v>
       </c>
-      <c r="AW80" s="4"/>
+      <c r="AW80" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY80" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ80" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA80" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB80" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC80" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD80" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE80" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF80" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG80" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH80" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI80" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ80" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>360</v>
       </c>
@@ -12616,10 +15901,50 @@
       <c r="AV81" s="4">
         <v>1</v>
       </c>
-      <c r="AW81" s="4"/>
-      <c r="AX81" s="4"/>
+      <c r="AW81" s="4">
+        <v>8</v>
+      </c>
+      <c r="AX81" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY81" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ81" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA81" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB81" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC81" s="4">
+        <v>7</v>
+      </c>
+      <c r="BD81" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE81" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF81" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG81" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH81" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI81" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ81" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>364</v>
       </c>
@@ -12755,9 +16080,50 @@
       <c r="AV82" s="4">
         <v>2</v>
       </c>
-      <c r="AX82" s="4"/>
+      <c r="AW82" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY82" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ82" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA82" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB82" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC82" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD82" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE82" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF82" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG82" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH82" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI82" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ82" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>368</v>
       </c>
@@ -12899,9 +16265,50 @@
       <c r="AV83" s="4">
         <v>3</v>
       </c>
-      <c r="AW83" s="4"/>
+      <c r="AW83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF83" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG83" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH83" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI83" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ83" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>371</v>
       </c>
@@ -13037,10 +16444,50 @@
       <c r="AV84" s="4">
         <v>1</v>
       </c>
-      <c r="AW84" s="4"/>
-      <c r="AX84" s="4"/>
+      <c r="AW84" s="4">
+        <v>8</v>
+      </c>
+      <c r="AX84" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY84" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ84" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA84" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB84" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC84" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD84" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE84" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF84" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG84" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH84" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI84" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ84" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>380</v>
       </c>
@@ -13182,10 +16629,50 @@
       <c r="AV85" s="4">
         <v>1</v>
       </c>
-      <c r="AW85" s="4"/>
-      <c r="AX85" s="4"/>
+      <c r="AW85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ85" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA85" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD85" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG85" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH85" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI85" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ85" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>382</v>
       </c>
@@ -13303,10 +16790,50 @@
       <c r="AV86" s="4">
         <v>1</v>
       </c>
-      <c r="AW86" s="4"/>
-      <c r="AX86" s="4"/>
+      <c r="AW86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ86" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA86" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB86" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC86" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD86" s="4">
+        <v>7</v>
+      </c>
+      <c r="BE86" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG86" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH86" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI86" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ86" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>383</v>
       </c>
@@ -13442,10 +16969,50 @@
       <c r="AV87" s="4">
         <v>1</v>
       </c>
-      <c r="AW87" s="4"/>
-      <c r="AX87" s="4"/>
+      <c r="AW87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG87" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH87" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI87" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ87" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>384</v>
       </c>
@@ -13581,10 +17148,50 @@
       <c r="AV88" s="4">
         <v>1</v>
       </c>
-      <c r="AW88" s="4"/>
-      <c r="AX88" s="4"/>
+      <c r="AW88" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX88" s="4">
+        <v>7</v>
+      </c>
+      <c r="AY88" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ88" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC88" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD88" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE88" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF88" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG88" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH88" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI88" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ88" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>394</v>
       </c>
@@ -13726,10 +17333,50 @@
       <c r="AV89" s="4">
         <v>1</v>
       </c>
-      <c r="AW89" s="4"/>
-      <c r="AX89" s="4"/>
+      <c r="AW89" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG89" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH89" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ89" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>411</v>
       </c>
@@ -13871,9 +17518,50 @@
       <c r="AV90" s="4">
         <v>2</v>
       </c>
-      <c r="AX90" s="4"/>
+      <c r="AW90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA90" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD90" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG90" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH90" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI90" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ90" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>417</v>
       </c>
@@ -14013,10 +17701,50 @@
         <v>40</v>
       </c>
       <c r="AV91" s="4"/>
-      <c r="AW91" s="4"/>
-      <c r="AX91" s="4"/>
+      <c r="AW91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG91" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH91" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI91" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ91" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>418</v>
       </c>
@@ -14158,10 +17886,50 @@
       <c r="AV92" s="4">
         <v>1</v>
       </c>
-      <c r="AW92" s="4"/>
-      <c r="AX92" s="4"/>
+      <c r="AW92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF92" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG92" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH92" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI92" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ92" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>421</v>
       </c>
@@ -14303,9 +18071,50 @@
       <c r="AV93" s="4">
         <v>2</v>
       </c>
-      <c r="AX93" s="4"/>
+      <c r="AW93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA93" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB93" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC93" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE93" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG93" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH93" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI93" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ93" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>429</v>
       </c>
@@ -14441,10 +18250,50 @@
       <c r="AV94" s="4">
         <v>1</v>
       </c>
-      <c r="AW94" s="4"/>
-      <c r="AX94" s="4"/>
+      <c r="AW94" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY94" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ94" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA94" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB94" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC94" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD94" s="4">
+        <v>10</v>
+      </c>
+      <c r="BE94" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF94" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG94" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH94" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI94" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ94" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>440</v>
       </c>
@@ -14586,9 +18435,50 @@
       <c r="AV95" s="4">
         <v>2</v>
       </c>
-      <c r="AX95" s="4"/>
+      <c r="AW95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ95" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC95" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD95" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG95" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH95" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI95" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ95" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>445</v>
       </c>
@@ -14730,10 +18620,50 @@
       <c r="AV96" s="4">
         <v>1</v>
       </c>
-      <c r="AW96" s="4"/>
-      <c r="AX96" s="4"/>
+      <c r="AW96" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX96" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY96" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ96" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD96" s="4">
+        <v>7</v>
+      </c>
+      <c r="BE96" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF96" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG96" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH96" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI96" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ96" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>452</v>
       </c>
@@ -14869,10 +18799,50 @@
       <c r="AV97" s="4">
         <v>1</v>
       </c>
-      <c r="AW97" s="4"/>
-      <c r="AX97" s="4"/>
+      <c r="AW97" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ97" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA97" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE97" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG97" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH97" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI97" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ97" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>455</v>
       </c>
@@ -15008,10 +18978,50 @@
       <c r="AV98" s="4">
         <v>1</v>
       </c>
-      <c r="AW98" s="4"/>
-      <c r="AX98" s="4"/>
+      <c r="AW98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ98" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD98" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE98" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG98" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH98" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI98" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ98" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>458</v>
       </c>
@@ -15147,9 +19157,50 @@
       <c r="AV99" s="4">
         <v>2</v>
       </c>
-      <c r="AX99" s="4"/>
+      <c r="AW99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX99" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY99" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA99" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC99" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD99" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE99" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG99" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH99" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI99" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ99" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>462</v>
       </c>
@@ -15291,10 +19342,50 @@
       <c r="AV100" s="4">
         <v>1</v>
       </c>
-      <c r="AW100" s="4"/>
-      <c r="AX100" s="4"/>
+      <c r="AW100" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX100" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY100" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ100" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA100" s="4">
+        <v>7</v>
+      </c>
+      <c r="BB100" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC100" s="4">
+        <v>8</v>
+      </c>
+      <c r="BD100" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE100" s="4">
+        <v>10</v>
+      </c>
+      <c r="BF100" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG100" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH100" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI100" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ100" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>465</v>
       </c>
@@ -15430,9 +19521,50 @@
       <c r="AV101" s="4">
         <v>2</v>
       </c>
-      <c r="AX101" s="4"/>
+      <c r="AW101" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX101" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY101" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ101" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA101" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB101" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC101" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD101" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE101" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF101" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG101" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH101" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI101" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ101" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>466</v>
       </c>
@@ -15574,9 +19706,50 @@
       <c r="AV102" s="4">
         <v>3</v>
       </c>
-      <c r="AW102" s="4"/>
+      <c r="AW102" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX102" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY102" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ102" s="4">
+        <v>9</v>
+      </c>
+      <c r="BA102" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB102" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC102" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD102" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE102" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF102" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG102" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH102" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI102" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ102" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>475</v>
       </c>
@@ -15682,10 +19855,50 @@
       <c r="AV103" s="4">
         <v>1</v>
       </c>
-      <c r="AW103" s="4"/>
-      <c r="AX103" s="4"/>
+      <c r="AW103" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ103" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA103" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB103" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC103" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD103" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE103" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF103" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG103" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH103" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI103" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ103" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>477</v>
       </c>
@@ -15827,9 +20040,50 @@
       <c r="AV104" s="4">
         <v>2</v>
       </c>
-      <c r="AX104" s="4"/>
+      <c r="AW104" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY104" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ104" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA104" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB104" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC104" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD104" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE104" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF104" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG104" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH104" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI104" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ104" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>480</v>
       </c>
@@ -15965,9 +20219,50 @@
       <c r="AV105" s="4">
         <v>2</v>
       </c>
-      <c r="AX105" s="4"/>
+      <c r="AW105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX105" s="4">
+        <v>7</v>
+      </c>
+      <c r="AY105" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ105" s="4">
+        <v>10</v>
+      </c>
+      <c r="BA105" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB105" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC105" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD105" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE105" s="4">
+        <v>9</v>
+      </c>
+      <c r="BF105" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG105" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH105" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI105" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ105" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>483</v>
       </c>
@@ -16109,9 +20404,50 @@
       <c r="AV106" s="4">
         <v>2</v>
       </c>
-      <c r="AX106" s="4"/>
+      <c r="AW106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY106" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ106" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA106" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB106" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC106" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD106" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE106" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF106" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG106" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH106" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI106" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ106" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>493</v>
       </c>
@@ -16211,9 +20547,50 @@
       <c r="AV107" s="4">
         <v>2</v>
       </c>
-      <c r="AX107" s="4"/>
+      <c r="AW107" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX107" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY107" s="4">
+        <v>10</v>
+      </c>
+      <c r="AZ107" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA107" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB107" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC107" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD107" s="4">
+        <v>7</v>
+      </c>
+      <c r="BE107" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF107" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG107" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH107" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI107" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ107" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>499</v>
       </c>
@@ -16349,10 +20726,50 @@
       <c r="AV108" s="4">
         <v>1</v>
       </c>
-      <c r="AW108" s="4"/>
-      <c r="AX108" s="4"/>
+      <c r="AW108" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX108" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY108" s="4">
+        <v>8</v>
+      </c>
+      <c r="AZ108" s="4">
+        <v>7</v>
+      </c>
+      <c r="BA108" s="4">
+        <v>4</v>
+      </c>
+      <c r="BB108" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC108" s="4">
+        <v>9</v>
+      </c>
+      <c r="BD108" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE108" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF108" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG108" s="4">
+        <v>5</v>
+      </c>
+      <c r="BH108" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI108" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ108" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>501</v>
       </c>
@@ -16446,10 +20863,50 @@
       <c r="AV109" s="4">
         <v>1</v>
       </c>
-      <c r="AW109" s="4"/>
-      <c r="AX109" s="4"/>
+      <c r="AW109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG109" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH109" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI109" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ109" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>502</v>
       </c>
@@ -16571,10 +21028,50 @@
       <c r="AV110" s="4">
         <v>1</v>
       </c>
-      <c r="AW110" s="4"/>
-      <c r="AX110" s="4"/>
+      <c r="AW110" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX110" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY110" s="4">
+        <v>9</v>
+      </c>
+      <c r="AZ110" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA110" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB110" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC110" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD110" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE110" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF110" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG110" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH110" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI110" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ110" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>505</v>
       </c>
@@ -16716,9 +21213,50 @@
       <c r="AV111" s="4">
         <v>3</v>
       </c>
-      <c r="AW111" s="4"/>
+      <c r="AW111" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX111" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY111" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ111" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA111" s="4">
+        <v>8</v>
+      </c>
+      <c r="BB111" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC111" s="4">
+        <v>7</v>
+      </c>
+      <c r="BD111" s="4">
+        <v>9</v>
+      </c>
+      <c r="BE111" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF111" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG111" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH111" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI111" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ111" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>506</v>
       </c>
@@ -16845,9 +21383,50 @@
       <c r="AV112" s="4">
         <v>3</v>
       </c>
-      <c r="AW112" s="4"/>
+      <c r="AW112" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX112" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY112" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ112" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA112" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE112" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF112" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG112" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH112" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI112" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ112" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>512</v>
       </c>
@@ -16965,9 +21544,50 @@
       <c r="AV113" s="4">
         <v>3</v>
       </c>
-      <c r="AW113" s="4"/>
+      <c r="AW113" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX113" s="4">
+        <v>7</v>
+      </c>
+      <c r="AY113" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ113" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA113" s="4">
+        <v>9</v>
+      </c>
+      <c r="BB113" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC113" s="4">
+        <v>8</v>
+      </c>
+      <c r="BD113" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE113" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF113" s="4">
+        <v>10</v>
+      </c>
+      <c r="BG113" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH113" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI113" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ113" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>515</v>
       </c>
@@ -17109,9 +21729,50 @@
       <c r="AV114" s="4">
         <v>2</v>
       </c>
-      <c r="AX114" s="4"/>
+      <c r="AW114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX114" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ114" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA114" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB114" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC114" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD114" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE114" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF114" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG114" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH114" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI114" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ114" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>518</v>
       </c>
@@ -17247,10 +21908,50 @@
       <c r="AV115" s="4">
         <v>1</v>
       </c>
-      <c r="AW115" s="4"/>
-      <c r="AX115" s="4"/>
+      <c r="AW115" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY115" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ115" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA115" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB115" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC115" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD115" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE115" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF115" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG115" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH115" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI115" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ115" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>520</v>
       </c>
@@ -17392,10 +22093,50 @@
       <c r="AV116" s="4">
         <v>1</v>
       </c>
-      <c r="AW116" s="4"/>
-      <c r="AX116" s="4"/>
+      <c r="AW116" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY116" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ116" s="4">
+        <v>2</v>
+      </c>
+      <c r="BA116" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB116" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC116" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD116" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE116" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF116" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG116" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH116" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI116" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ116" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>521</v>
       </c>
@@ -17531,10 +22272,50 @@
       <c r="AV117" s="4">
         <v>1</v>
       </c>
-      <c r="AW117" s="4"/>
-      <c r="AX117" s="4"/>
+      <c r="AW117" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX117" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY117" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ117" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA117" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB117" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC117" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD117" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE117" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF117" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG117" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH117" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI117" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ117" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>522</v>
       </c>
@@ -17670,10 +22451,50 @@
       <c r="AV118" s="4">
         <v>1</v>
       </c>
-      <c r="AW118" s="4"/>
-      <c r="AX118" s="4"/>
+      <c r="AW118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX118" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY118" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ118" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA118" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB118" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC118" s="4">
+        <v>7</v>
+      </c>
+      <c r="BD118" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE118" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF118" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG118" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH118" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI118" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ118" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>523</v>
       </c>
@@ -17815,9 +22636,50 @@
       <c r="AV119" s="4">
         <v>2</v>
       </c>
-      <c r="AX119" s="4"/>
+      <c r="AW119" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX119" s="4">
+        <v>8</v>
+      </c>
+      <c r="AY119" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ119" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA119" s="4">
+        <v>7</v>
+      </c>
+      <c r="BB119" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC119" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD119" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE119" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF119" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG119" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH119" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI119" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ119" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>526</v>
       </c>
@@ -17953,10 +22815,50 @@
       <c r="AV120" s="4">
         <v>1</v>
       </c>
-      <c r="AW120" s="4"/>
-      <c r="AX120" s="4"/>
+      <c r="AW120" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX120" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY120" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ120" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA120" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB120" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC120" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD120" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE120" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF120" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG120" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH120" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI120" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ120" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>527</v>
       </c>
@@ -18092,10 +22994,50 @@
       <c r="AV121" s="4">
         <v>1</v>
       </c>
-      <c r="AW121" s="4"/>
-      <c r="AX121" s="4"/>
+      <c r="AW121" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX121" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY121" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ121" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA121" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB121" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC121" s="4">
+        <v>7</v>
+      </c>
+      <c r="BD121" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE121" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF121" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG121" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH121" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI121" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ121" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>528</v>
       </c>
@@ -18237,9 +23179,50 @@
       <c r="AV122" s="4">
         <v>2</v>
       </c>
-      <c r="AX122" s="4"/>
+      <c r="AW122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY122" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF122" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG122" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH122" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI122" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ122" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>530</v>
       </c>
@@ -18381,10 +23364,50 @@
       <c r="AV123" s="4">
         <v>1</v>
       </c>
-      <c r="AW123" s="4"/>
-      <c r="AX123" s="4"/>
+      <c r="AW123" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX123" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY123" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ123" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA123" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB123" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC123" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD123" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE123" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF123" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG123" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH123" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI123" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ123" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>532</v>
       </c>
@@ -18523,10 +23546,50 @@
       <c r="AV124" s="4">
         <v>1</v>
       </c>
-      <c r="AW124" s="4"/>
-      <c r="AX124" s="4"/>
+      <c r="AW124" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX124" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY124" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ124" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA124" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB124" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC124" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD124" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE124" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF124" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG124" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH124" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI124" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ124" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>535</v>
       </c>
@@ -18594,10 +23657,50 @@
       <c r="AV125" s="4">
         <v>1</v>
       </c>
-      <c r="AW125" s="4"/>
-      <c r="AX125" s="4"/>
+      <c r="AW125" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX125" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY125" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ125" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA125" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB125" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC125" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD125" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE125" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF125" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG125" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH125" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI125" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ125" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>537</v>
       </c>
@@ -18733,10 +23836,50 @@
       <c r="AV126" s="4">
         <v>1</v>
       </c>
-      <c r="AW126" s="4"/>
-      <c r="AX126" s="4"/>
+      <c r="AW126" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX126" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY126" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ126" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA126" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB126" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC126" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD126" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE126" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF126" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG126" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH126" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI126" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ126" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>539</v>
       </c>
@@ -18878,10 +24021,50 @@
       <c r="AV127" s="4">
         <v>1</v>
       </c>
-      <c r="AW127" s="4"/>
-      <c r="AX127" s="4"/>
+      <c r="AW127" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX127" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY127" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ127" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA127" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB127" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC127" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD127" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE127" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF127" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG127" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH127" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI127" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ127" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>540</v>
       </c>
@@ -19026,9 +24209,50 @@
       <c r="AV128" s="4">
         <v>3</v>
       </c>
-      <c r="AW128" s="4"/>
+      <c r="AW128" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX128" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY128" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ128" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA128" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB128" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC128" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD128" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE128" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF128" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG128" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH128" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI128" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ128" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>541</v>
       </c>
@@ -19164,9 +24388,50 @@
       <c r="AV129" s="4">
         <v>2</v>
       </c>
-      <c r="AX129" s="4"/>
+      <c r="AW129" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX129" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY129" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ129" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA129" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB129" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC129" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD129" s="4">
+        <v>10</v>
+      </c>
+      <c r="BE129" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF129" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG129" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH129" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI129" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ129" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>542</v>
       </c>
@@ -19302,9 +24567,50 @@
       <c r="AV130" s="4">
         <v>2</v>
       </c>
-      <c r="AX130" s="4"/>
+      <c r="AW130" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY130" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ130" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA130" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB130" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC130" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD130" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE130" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF130" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG130" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH130" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI130" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ130" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>543</v>
       </c>
@@ -19446,10 +24752,50 @@
       <c r="AV131" s="4">
         <v>1</v>
       </c>
-      <c r="AW131" s="4"/>
-      <c r="AX131" s="4"/>
+      <c r="AW131" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX131" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY131" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ131" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA131" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB131" s="4">
+        <v>7</v>
+      </c>
+      <c r="BC131" s="4">
+        <v>8</v>
+      </c>
+      <c r="BD131" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE131" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF131" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG131" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH131" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI131" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ131" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>545</v>
       </c>
@@ -19591,9 +24937,50 @@
       <c r="AV132" s="4">
         <v>3</v>
       </c>
-      <c r="AW132" s="4"/>
+      <c r="AW132" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX132" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY132" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ132" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA132" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB132" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC132" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD132" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE132" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF132" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG132" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH132" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI132" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ132" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>549</v>
       </c>
@@ -19735,9 +25122,50 @@
       <c r="AV133" s="4">
         <v>2</v>
       </c>
-      <c r="AX133" s="4"/>
+      <c r="AW133" s="4">
+        <v>8</v>
+      </c>
+      <c r="AX133" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY133" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ133" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA133" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB133" s="4">
+        <v>10</v>
+      </c>
+      <c r="BC133" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD133" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE133" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF133" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH133" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI133" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ133" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>559</v>
       </c>
@@ -19879,10 +25307,50 @@
       <c r="AV134" s="4">
         <v>1</v>
       </c>
-      <c r="AW134" s="4"/>
-      <c r="AX134" s="4"/>
+      <c r="AW134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY134" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF134" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG134" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH134" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI134" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ134" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>565</v>
       </c>
@@ -20018,10 +25486,50 @@
       <c r="AV135" s="4">
         <v>1</v>
       </c>
-      <c r="AW135" s="4"/>
-      <c r="AX135" s="4"/>
+      <c r="AW135" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX135" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY135" s="4">
+        <v>9</v>
+      </c>
+      <c r="AZ135" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA135" s="4">
+        <v>10</v>
+      </c>
+      <c r="BB135" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC135" s="4">
+        <v>5</v>
+      </c>
+      <c r="BD135" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE135" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF135" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG135" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH135" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI135" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ135" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>566</v>
       </c>
@@ -20163,9 +25671,50 @@
       <c r="AV136" s="4">
         <v>3</v>
       </c>
-      <c r="AW136" s="4"/>
+      <c r="AW136" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX136" s="4">
+        <v>5</v>
+      </c>
+      <c r="AY136" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ136" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA136" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB136" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC136" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD136" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE136" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF136" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG136" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH136" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI136" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ136" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>567</v>
       </c>
@@ -20283,9 +25832,50 @@
       <c r="AV137" s="4">
         <v>3</v>
       </c>
-      <c r="AW137" s="4"/>
+      <c r="AW137" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX137" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY137" s="4">
+        <v>7</v>
+      </c>
+      <c r="AZ137" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA137" s="4">
+        <v>3</v>
+      </c>
+      <c r="BB137" s="4">
+        <v>6</v>
+      </c>
+      <c r="BC137" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD137" s="4">
+        <v>10</v>
+      </c>
+      <c r="BE137" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF137" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG137" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH137" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI137" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ137" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>569</v>
       </c>
@@ -20409,9 +25999,50 @@
       <c r="AV138" s="4">
         <v>3</v>
       </c>
-      <c r="AW138" s="4"/>
+      <c r="AW138" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX138" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY138" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ138" s="4">
+        <v>10</v>
+      </c>
+      <c r="BA138" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB138" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC138" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD138" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE138" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF138" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG138" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH138" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI138" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ138" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>571</v>
       </c>
@@ -20551,10 +26182,50 @@
         <v>0</v>
       </c>
       <c r="AV139" s="4"/>
-      <c r="AW139" s="4"/>
-      <c r="AX139" s="4"/>
+      <c r="AW139" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX139" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY139" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ139" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA139" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB139" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC139" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD139" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE139" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF139" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG139" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH139" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI139" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ139" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>572</v>
       </c>
@@ -20679,10 +26350,50 @@
         <v>40</v>
       </c>
       <c r="AV140" s="4"/>
-      <c r="AW140" s="4"/>
-      <c r="AX140" s="4"/>
+      <c r="AW140" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX140" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY140" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ140" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA140" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB140" s="4">
+        <v>8</v>
+      </c>
+      <c r="BC140" s="4">
+        <v>7</v>
+      </c>
+      <c r="BD140" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE140" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF140" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG140" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH140" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI140" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ140" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>573</v>
       </c>
@@ -20804,10 +26515,50 @@
         <v>0</v>
       </c>
       <c r="AV141" s="4"/>
-      <c r="AW141" s="4"/>
-      <c r="AX141" s="4"/>
+      <c r="AW141" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX141" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY141" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG141" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH141" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI141" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ141" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>575</v>
       </c>
@@ -20943,9 +26694,50 @@
       <c r="AV142" s="4">
         <v>2</v>
       </c>
-      <c r="AX142" s="4"/>
+      <c r="AW142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY142" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ142" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA142" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB142" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC142" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD142" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE142" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF142" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG142" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH142" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI142" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ142" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>579</v>
       </c>
@@ -21087,9 +26879,50 @@
       <c r="AV143" s="4">
         <v>2</v>
       </c>
-      <c r="AX143" s="4"/>
+      <c r="AW143" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX143" s="4">
+        <v>10</v>
+      </c>
+      <c r="AY143" s="4">
+        <v>9</v>
+      </c>
+      <c r="AZ143" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA143" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB143" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC143" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD143" s="4">
+        <v>8</v>
+      </c>
+      <c r="BE143" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF143" s="4">
+        <v>7</v>
+      </c>
+      <c r="BG143" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH143" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI143" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ143" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>581</v>
       </c>
@@ -21231,9 +27064,50 @@
       <c r="AV144" s="4">
         <v>2</v>
       </c>
-      <c r="AX144" s="4"/>
+      <c r="AW144" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX144" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY144" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF144" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG144" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH144" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI144" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ144" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>586</v>
       </c>
@@ -21372,9 +27246,50 @@
       <c r="AV145" s="4">
         <v>2</v>
       </c>
-      <c r="AX145" s="4"/>
+      <c r="AW145" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX145" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY145" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF145" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG145" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH145" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI145" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ145" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>587</v>
       </c>
@@ -21510,9 +27425,50 @@
       <c r="AV146" s="4">
         <v>2</v>
       </c>
-      <c r="AX146" s="4"/>
+      <c r="AW146" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY146" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD146" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE146" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF146" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG146" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH146" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI146" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ146" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>588</v>
       </c>
@@ -21654,10 +27610,50 @@
       <c r="AV147" s="4">
         <v>1</v>
       </c>
-      <c r="AW147" s="4"/>
-      <c r="AX147" s="4"/>
+      <c r="AW147" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX147" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY147" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ147" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA147" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB147" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC147" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD147" s="4">
+        <v>5</v>
+      </c>
+      <c r="BE147" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF147" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG147" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH147" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI147" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ147" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>594</v>
       </c>
@@ -21799,10 +27795,50 @@
       <c r="AV148" s="4">
         <v>1</v>
       </c>
-      <c r="AW148" s="4"/>
-      <c r="AX148" s="4"/>
+      <c r="AW148" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX148" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY148" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ148" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA148" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB148" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD148" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE148" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF148" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH148" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI148" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ148" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>601</v>
       </c>
@@ -21938,9 +27974,50 @@
       <c r="AV149" s="4">
         <v>2</v>
       </c>
-      <c r="AX149" s="4"/>
+      <c r="AW149" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX149" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY149" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ149" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA149" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB149" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC149" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD149" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE149" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF149" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG149" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH149" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI149" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ149" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>604</v>
       </c>
@@ -22047,10 +28124,50 @@
         <v>0</v>
       </c>
       <c r="AV150" s="4"/>
-      <c r="AW150" s="4"/>
-      <c r="AX150" s="4"/>
+      <c r="AW150" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX150" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY150" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF150" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG150" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH150" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI150" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ150" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>608</v>
       </c>
@@ -22192,9 +28309,50 @@
       <c r="AV151" s="4">
         <v>3</v>
       </c>
-      <c r="AW151" s="4"/>
+      <c r="AW151" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX151" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY151" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC151" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF151" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH151" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI151" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ151" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>610</v>
       </c>
@@ -22291,9 +28449,50 @@
       <c r="AV152" s="4">
         <v>3</v>
       </c>
-      <c r="AW152" s="4"/>
+      <c r="AW152" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX152" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY152" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ152" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA152" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB152" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC152" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD152" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE152" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF152" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG152" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH152" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI152" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ152" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>612</v>
       </c>
@@ -22421,10 +28620,50 @@
         <v>0</v>
       </c>
       <c r="AV153" s="4"/>
-      <c r="AW153" s="4"/>
-      <c r="AX153" s="4"/>
+      <c r="AW153" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX153" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY153" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ153" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA153" s="4">
+        <v>7</v>
+      </c>
+      <c r="BB153" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC153" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD153" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE153" s="4">
+        <v>9</v>
+      </c>
+      <c r="BF153" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG153" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH153" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI153" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ153" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>615</v>
       </c>
@@ -22531,10 +28770,50 @@
         <v>0</v>
       </c>
       <c r="AV154" s="4"/>
-      <c r="AW154" s="4"/>
-      <c r="AX154" s="4"/>
+      <c r="AW154" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX154" s="4">
+        <v>3</v>
+      </c>
+      <c r="AY154" s="4">
+        <v>10</v>
+      </c>
+      <c r="AZ154" s="4">
+        <v>4</v>
+      </c>
+      <c r="BA154" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB154" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC154" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD154" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE154" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF154" s="4">
+        <v>8</v>
+      </c>
+      <c r="BG154" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH154" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI154" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ154" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>620</v>
       </c>
@@ -22634,9 +28913,50 @@
       <c r="AV155" s="4">
         <v>2</v>
       </c>
-      <c r="AX155" s="4"/>
+      <c r="AW155" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX155" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY155" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ155" s="4">
+        <v>3</v>
+      </c>
+      <c r="BA155" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB155" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC155" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD155" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE155" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF155" s="4">
+        <v>5</v>
+      </c>
+      <c r="BG155" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH155" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI155" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ155" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>622</v>
       </c>
@@ -22730,9 +29050,50 @@
       <c r="AV156" s="4">
         <v>2</v>
       </c>
-      <c r="AX156" s="4"/>
+      <c r="AW156" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX156" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY156" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ156" s="4">
+        <v>8</v>
+      </c>
+      <c r="BA156" s="4">
+        <v>7</v>
+      </c>
+      <c r="BB156" s="4">
+        <v>9</v>
+      </c>
+      <c r="BC156" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD156" s="4">
+        <v>6</v>
+      </c>
+      <c r="BE156" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF156" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG156" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH156" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI156" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ156" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>623</v>
       </c>
@@ -22835,10 +29196,50 @@
       <c r="AV157" s="4">
         <v>1</v>
       </c>
-      <c r="AW157" s="4"/>
-      <c r="AX157" s="4"/>
+      <c r="AW157" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX157" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY157" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ157" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA157" s="4">
+        <v>5</v>
+      </c>
+      <c r="BB157" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC157" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD157" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE157" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF157" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG157" s="4">
+        <v>5</v>
+      </c>
+      <c r="BH157" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI157" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ157" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>625</v>
       </c>
@@ -22950,9 +29351,50 @@
       <c r="AV158" s="4">
         <v>2</v>
       </c>
-      <c r="AX158" s="4"/>
+      <c r="AW158" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX158" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY158" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ158" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA158" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB158" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD158" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE158" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF158" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG158" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH158" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI158" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ158" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>627</v>
       </c>
@@ -23094,9 +29536,50 @@
       <c r="AV159" s="4">
         <v>2</v>
       </c>
-      <c r="AX159" s="4"/>
+      <c r="AW159" s="4">
+        <v>8</v>
+      </c>
+      <c r="AX159" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY159" s="4">
+        <v>2</v>
+      </c>
+      <c r="AZ159" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA159" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB159" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC159" s="4">
+        <v>7</v>
+      </c>
+      <c r="BD159" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE159" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF159" s="4">
+        <v>9</v>
+      </c>
+      <c r="BG159" s="4">
+        <v>3</v>
+      </c>
+      <c r="BH159" s="4">
+        <v>3</v>
+      </c>
+      <c r="BI159" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ159" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>628</v>
       </c>
@@ -23238,10 +29721,50 @@
       <c r="AV160" s="4">
         <v>2</v>
       </c>
-      <c r="AW160" s="4"/>
-      <c r="AX160" s="4"/>
+      <c r="AW160" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX160" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY160" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ160" s="4">
+        <v>7</v>
+      </c>
+      <c r="BA160" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB160" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC160" s="4">
+        <v>3</v>
+      </c>
+      <c r="BD160" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE160" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF160" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG160" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH160" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI160" s="4">
+        <v>3</v>
+      </c>
+      <c r="BJ160" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>630</v>
       </c>
@@ -23377,10 +29900,50 @@
       <c r="AV161" s="4">
         <v>1</v>
       </c>
-      <c r="AW161" s="4"/>
-      <c r="AX161" s="4"/>
+      <c r="AW161" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX161" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY161" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF161" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG161" s="4">
+        <v>4</v>
+      </c>
+      <c r="BH161" s="4">
+        <v>4</v>
+      </c>
+      <c r="BI161" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ161" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>633</v>
       </c>
@@ -23522,8 +30085,48 @@
       <c r="AV162" s="4">
         <v>1</v>
       </c>
-      <c r="AW162" s="4"/>
-      <c r="AX162" s="4"/>
+      <c r="AW162" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX162" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY162" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF162" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG162" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH162" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI162" s="4">
+        <v>6</v>
+      </c>
+      <c r="BJ162" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/var_2022.xlsx
+++ b/data/var_2022.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E42D4-AB9B-7F4D-9DD5-2AB36AF1C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79FA51-AD26-7245-B6E9-A2067B604F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14800" xr2:uid="{EC25B9EA-FDAB-9743-94C4-44DFC8A3E745}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="381">
   <si>
     <t>school_id</t>
   </si>
@@ -1157,13 +1157,28 @@
     <t>teaching_diversity</t>
   </si>
   <si>
-    <t>Biracial</t>
-  </si>
-  <si>
     <t>leader1_race</t>
   </si>
   <si>
     <t>leader1_gender</t>
+  </si>
+  <si>
+    <t>leader_tenure</t>
+  </si>
+  <si>
+    <t>4-6 years</t>
+  </si>
+  <si>
+    <t>10 years or more</t>
+  </si>
+  <si>
+    <t>7-9 years</t>
+  </si>
+  <si>
+    <t>1-3 years</t>
+  </si>
+  <si>
+    <t>Less than a year</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ED279A-822D-8344-BAC8-3150E9380219}">
-  <dimension ref="A1:BJ162"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX125" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1575,9 +1590,10 @@
     <col min="60" max="60" width="25.6640625" customWidth="1"/>
     <col min="61" max="61" width="16" customWidth="1"/>
     <col min="62" max="62" width="10.6640625" customWidth="1"/>
+    <col min="63" max="63" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="113" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="113" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,13 +1775,16 @@
         <v>372</v>
       </c>
       <c r="BI1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>7</v>
       </c>
@@ -1943,8 +1962,11 @@
       <c r="BJ2" s="4">
         <v>1</v>
       </c>
+      <c r="BK2" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>8</v>
       </c>
@@ -2128,8 +2150,11 @@
       <c r="BJ3" s="4">
         <v>2</v>
       </c>
+      <c r="BK3" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>11</v>
       </c>
@@ -2296,8 +2321,11 @@
       <c r="BJ4" s="4">
         <v>2</v>
       </c>
+      <c r="BK4" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>16</v>
       </c>
@@ -2469,14 +2497,17 @@
       <c r="BH5" s="4">
         <v>1</v>
       </c>
-      <c r="BI5" s="4" t="s">
-        <v>373</v>
+      <c r="BI5" s="4">
+        <v>8</v>
       </c>
       <c r="BJ5" s="4">
         <v>1</v>
       </c>
+      <c r="BK5" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>21</v>
       </c>
@@ -2654,8 +2685,11 @@
       <c r="BJ6" s="4">
         <v>1</v>
       </c>
+      <c r="BK6" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -2831,8 +2865,11 @@
       <c r="BJ7" s="4">
         <v>2</v>
       </c>
+      <c r="BK7" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>26</v>
       </c>
@@ -3010,8 +3047,11 @@
       <c r="BJ8" s="4">
         <v>1</v>
       </c>
+      <c r="BK8" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>27</v>
       </c>
@@ -3189,8 +3229,11 @@
       <c r="BJ9" s="4">
         <v>1</v>
       </c>
+      <c r="BK9" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41</v>
       </c>
@@ -3358,8 +3401,11 @@
       <c r="BJ10" s="4">
         <v>2</v>
       </c>
+      <c r="BK10" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>42</v>
       </c>
@@ -3537,8 +3583,11 @@
       <c r="BJ11" s="4">
         <v>2</v>
       </c>
+      <c r="BK11" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44</v>
       </c>
@@ -3716,8 +3765,11 @@
       <c r="BJ12" s="4">
         <v>2</v>
       </c>
+      <c r="BK12" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45</v>
       </c>
@@ -3877,8 +3929,11 @@
       <c r="BJ13" s="4">
         <v>1</v>
       </c>
+      <c r="BK13" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>47</v>
       </c>
@@ -4062,8 +4117,11 @@
       <c r="BJ14" s="4">
         <v>2</v>
       </c>
+      <c r="BK14" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>52</v>
       </c>
@@ -4214,8 +4272,11 @@
       <c r="BJ15" s="4">
         <v>2</v>
       </c>
+      <c r="BK15" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>67</v>
       </c>
@@ -4399,8 +4460,11 @@
       <c r="BJ16" s="4">
         <v>1</v>
       </c>
+      <c r="BK16" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>69</v>
       </c>
@@ -4584,8 +4648,11 @@
       <c r="BJ17" s="4">
         <v>2</v>
       </c>
+      <c r="BK17" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>70</v>
       </c>
@@ -4769,8 +4836,11 @@
       <c r="BJ18" s="4">
         <v>2</v>
       </c>
+      <c r="BK18" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>71</v>
       </c>
@@ -4948,8 +5018,11 @@
       <c r="BJ19" s="4">
         <v>1</v>
       </c>
+      <c r="BK19" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -5127,8 +5200,11 @@
       <c r="BJ20" s="4">
         <v>2</v>
       </c>
+      <c r="BK20" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>81</v>
       </c>
@@ -5312,8 +5388,11 @@
       <c r="BJ21" s="4">
         <v>2</v>
       </c>
+      <c r="BK21" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>83</v>
       </c>
@@ -5497,8 +5576,11 @@
       <c r="BJ22" s="4">
         <v>1</v>
       </c>
+      <c r="BK22" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>84</v>
       </c>
@@ -5676,8 +5758,11 @@
       <c r="BJ23" s="4">
         <v>2</v>
       </c>
+      <c r="BK23" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>85</v>
       </c>
@@ -5861,8 +5946,11 @@
       <c r="BJ24" s="4">
         <v>2</v>
       </c>
+      <c r="BK24" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>91</v>
       </c>
@@ -6046,8 +6134,11 @@
       <c r="BJ25" s="4">
         <v>2</v>
       </c>
+      <c r="BK25" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>94</v>
       </c>
@@ -6225,8 +6316,11 @@
       <c r="BJ26" s="4">
         <v>1</v>
       </c>
+      <c r="BK26" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>97</v>
       </c>
@@ -6404,8 +6498,11 @@
       <c r="BJ27" s="4">
         <v>1</v>
       </c>
+      <c r="BK27" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>98</v>
       </c>
@@ -6589,8 +6686,11 @@
       <c r="BJ28" s="4">
         <v>2</v>
       </c>
+      <c r="BK28" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>100</v>
       </c>
@@ -6768,8 +6868,11 @@
       <c r="BJ29" s="4">
         <v>2</v>
       </c>
+      <c r="BK29" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>101</v>
       </c>
@@ -6953,8 +7056,11 @@
       <c r="BJ30" s="4">
         <v>2</v>
       </c>
+      <c r="BK30" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>105</v>
       </c>
@@ -7132,8 +7238,11 @@
       <c r="BJ31" s="4">
         <v>2</v>
       </c>
+      <c r="BK31" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>119</v>
       </c>
@@ -7311,8 +7420,11 @@
       <c r="BJ32" s="4">
         <v>1</v>
       </c>
+      <c r="BK32" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>120</v>
       </c>
@@ -7496,8 +7608,11 @@
       <c r="BJ33" s="4">
         <v>2</v>
       </c>
+      <c r="BK33" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>122</v>
       </c>
@@ -7675,8 +7790,11 @@
       <c r="BJ34" s="4">
         <v>2</v>
       </c>
+      <c r="BK34" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>132</v>
       </c>
@@ -7854,8 +7972,11 @@
       <c r="BJ35" s="4">
         <v>1</v>
       </c>
+      <c r="BK35" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>138</v>
       </c>
@@ -8027,14 +8148,17 @@
       <c r="BH36" s="4">
         <v>2</v>
       </c>
-      <c r="BI36" s="4" t="s">
-        <v>373</v>
+      <c r="BI36" s="4">
+        <v>8</v>
       </c>
       <c r="BJ36" s="4">
         <v>1</v>
       </c>
+      <c r="BK36" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>139</v>
       </c>
@@ -8212,8 +8336,11 @@
       <c r="BJ37" s="4">
         <v>1</v>
       </c>
+      <c r="BK37" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>140</v>
       </c>
@@ -8391,8 +8518,11 @@
       <c r="BJ38" s="4">
         <v>1</v>
       </c>
+      <c r="BK38" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>141</v>
       </c>
@@ -8570,8 +8700,11 @@
       <c r="BJ39" s="4">
         <v>2</v>
       </c>
+      <c r="BK39" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>144</v>
       </c>
@@ -8755,8 +8888,11 @@
       <c r="BJ40" s="4">
         <v>2</v>
       </c>
+      <c r="BK40" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>146</v>
       </c>
@@ -8934,8 +9070,11 @@
       <c r="BJ41" s="4">
         <v>2</v>
       </c>
+      <c r="BK41" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>150</v>
       </c>
@@ -9083,8 +9222,11 @@
       <c r="BJ42" s="4">
         <v>2</v>
       </c>
+      <c r="BK42" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>157</v>
       </c>
@@ -9262,8 +9404,11 @@
       <c r="BJ43" s="4">
         <v>1</v>
       </c>
+      <c r="BK43" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>165</v>
       </c>
@@ -9441,8 +9586,11 @@
       <c r="BJ44" s="4">
         <v>1</v>
       </c>
+      <c r="BK44" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>172</v>
       </c>
@@ -9620,8 +9768,11 @@
       <c r="BJ45" s="4">
         <v>2</v>
       </c>
+      <c r="BK45" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>180</v>
       </c>
@@ -9805,8 +9956,11 @@
       <c r="BJ46" s="4">
         <v>2</v>
       </c>
+      <c r="BK46" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>189</v>
       </c>
@@ -9984,8 +10138,11 @@
       <c r="BJ47" s="4">
         <v>1</v>
       </c>
+      <c r="BK47" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>197</v>
       </c>
@@ -10163,8 +10320,11 @@
       <c r="BJ48" s="4">
         <v>0</v>
       </c>
+      <c r="BK48" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>204</v>
       </c>
@@ -10340,8 +10500,11 @@
       <c r="BJ49" s="4">
         <v>2</v>
       </c>
+      <c r="BK49" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>209</v>
       </c>
@@ -10525,8 +10688,11 @@
       <c r="BJ50" s="4">
         <v>2</v>
       </c>
+      <c r="BK50" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>225</v>
       </c>
@@ -10704,8 +10870,11 @@
       <c r="BJ51" s="4">
         <v>1</v>
       </c>
+      <c r="BK51" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>228</v>
       </c>
@@ -10883,8 +11052,11 @@
       <c r="BJ52" s="4">
         <v>2</v>
       </c>
+      <c r="BK52" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>234</v>
       </c>
@@ -11062,8 +11234,11 @@
       <c r="BJ53" s="4">
         <v>1</v>
       </c>
+      <c r="BK53" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>235</v>
       </c>
@@ -11241,8 +11416,11 @@
       <c r="BJ54" s="4">
         <v>1</v>
       </c>
+      <c r="BK54" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>236</v>
       </c>
@@ -11420,8 +11598,11 @@
       <c r="BJ55" s="4">
         <v>2</v>
       </c>
+      <c r="BK55" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>237</v>
       </c>
@@ -11599,8 +11780,11 @@
       <c r="BJ56" s="4">
         <v>1</v>
       </c>
+      <c r="BK56" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>241</v>
       </c>
@@ -11778,8 +11962,11 @@
       <c r="BJ57" s="4">
         <v>2</v>
       </c>
+      <c r="BK57" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>246</v>
       </c>
@@ -11963,8 +12150,11 @@
       <c r="BJ58" s="4">
         <v>2</v>
       </c>
+      <c r="BK58" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>247</v>
       </c>
@@ -12106,8 +12296,11 @@
       <c r="BJ59" s="4">
         <v>1</v>
       </c>
+      <c r="BK59" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>251</v>
       </c>
@@ -12258,8 +12451,11 @@
       <c r="BJ60" s="4">
         <v>1</v>
       </c>
+      <c r="BK60" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>266</v>
       </c>
@@ -12407,8 +12603,11 @@
       <c r="BJ61" s="4">
         <v>1</v>
       </c>
+      <c r="BK61" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>275</v>
       </c>
@@ -12592,8 +12791,11 @@
       <c r="BJ62" s="4">
         <v>1</v>
       </c>
+      <c r="BK62" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>276</v>
       </c>
@@ -12756,8 +12958,11 @@
       <c r="BJ63" s="4">
         <v>1</v>
       </c>
+      <c r="BK63" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>281</v>
       </c>
@@ -12935,8 +13140,11 @@
       <c r="BJ64" s="4">
         <v>2</v>
       </c>
+      <c r="BK64" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>292</v>
       </c>
@@ -13114,8 +13322,11 @@
       <c r="BJ65" s="4">
         <v>2</v>
       </c>
+      <c r="BK65" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>293</v>
       </c>
@@ -13260,8 +13471,11 @@
       <c r="BJ66" s="4">
         <v>1</v>
       </c>
+      <c r="BK66" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>296</v>
       </c>
@@ -13445,8 +13659,11 @@
       <c r="BJ67" s="4">
         <v>2</v>
       </c>
+      <c r="BK67" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>299</v>
       </c>
@@ -13616,8 +13833,11 @@
       <c r="BJ68" s="4">
         <v>1</v>
       </c>
+      <c r="BK68" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>302</v>
       </c>
@@ -13801,8 +14021,11 @@
       <c r="BJ69" s="4">
         <v>2</v>
       </c>
+      <c r="BK69" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>303</v>
       </c>
@@ -13986,8 +14209,11 @@
       <c r="BJ70" s="4">
         <v>1</v>
       </c>
+      <c r="BK70" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>306</v>
       </c>
@@ -14165,8 +14391,11 @@
       <c r="BJ71" s="4">
         <v>2</v>
       </c>
+      <c r="BK71" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>312</v>
       </c>
@@ -14344,8 +14573,11 @@
       <c r="BJ72" s="4">
         <v>2</v>
       </c>
+      <c r="BK72" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>319</v>
       </c>
@@ -14523,8 +14755,11 @@
       <c r="BJ73" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BK73" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>323</v>
       </c>
@@ -14702,8 +14937,11 @@
       <c r="BJ74" s="4">
         <v>1</v>
       </c>
+      <c r="BK74" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>333</v>
       </c>
@@ -14881,14 +15119,17 @@
       <c r="BH75" s="4">
         <v>2</v>
       </c>
-      <c r="BI75" s="4" t="s">
-        <v>373</v>
+      <c r="BI75" s="4">
+        <v>8</v>
       </c>
       <c r="BJ75" s="4">
         <v>2</v>
       </c>
+      <c r="BK75" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>345</v>
       </c>
@@ -15072,8 +15313,11 @@
       <c r="BJ76" s="4">
         <v>2</v>
       </c>
+      <c r="BK76" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>348</v>
       </c>
@@ -15251,8 +15495,11 @@
       <c r="BJ77" s="4">
         <v>1</v>
       </c>
+      <c r="BK77" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>353</v>
       </c>
@@ -15430,8 +15677,11 @@
       <c r="BJ78" s="4">
         <v>1</v>
       </c>
+      <c r="BK78" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>356</v>
       </c>
@@ -15615,8 +15865,11 @@
       <c r="BJ79" s="4">
         <v>2</v>
       </c>
+      <c r="BK79" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>358</v>
       </c>
@@ -15800,8 +16053,11 @@
       <c r="BJ80" s="4">
         <v>1</v>
       </c>
+      <c r="BK80" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>360</v>
       </c>
@@ -15943,8 +16199,11 @@
       <c r="BJ81" s="4">
         <v>1</v>
       </c>
+      <c r="BK81" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>364</v>
       </c>
@@ -16122,8 +16381,11 @@
       <c r="BJ82" s="4">
         <v>1</v>
       </c>
+      <c r="BK82" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>368</v>
       </c>
@@ -16301,14 +16563,17 @@
       <c r="BH83" s="4">
         <v>2</v>
       </c>
-      <c r="BI83" s="4" t="s">
-        <v>373</v>
+      <c r="BI83" s="4">
+        <v>8</v>
       </c>
       <c r="BJ83" s="4">
         <v>2</v>
       </c>
+      <c r="BK83" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>371</v>
       </c>
@@ -16486,8 +16751,11 @@
       <c r="BJ84" s="4">
         <v>2</v>
       </c>
+      <c r="BK84" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>380</v>
       </c>
@@ -16671,8 +16939,11 @@
       <c r="BJ85" s="4">
         <v>2</v>
       </c>
+      <c r="BK85" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>382</v>
       </c>
@@ -16832,8 +17103,11 @@
       <c r="BJ86" s="4">
         <v>1</v>
       </c>
+      <c r="BK86" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>383</v>
       </c>
@@ -17011,8 +17285,11 @@
       <c r="BJ87" s="4">
         <v>2</v>
       </c>
+      <c r="BK87" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>384</v>
       </c>
@@ -17190,8 +17467,11 @@
       <c r="BJ88" s="4">
         <v>2</v>
       </c>
+      <c r="BK88" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>394</v>
       </c>
@@ -17375,8 +17655,11 @@
       <c r="BJ89" s="4">
         <v>1</v>
       </c>
+      <c r="BK89" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>411</v>
       </c>
@@ -17560,8 +17843,11 @@
       <c r="BJ90" s="4">
         <v>2</v>
       </c>
+      <c r="BK90" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>417</v>
       </c>
@@ -17743,8 +18029,11 @@
       <c r="BJ91" s="4">
         <v>2</v>
       </c>
+      <c r="BK91" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>418</v>
       </c>
@@ -17928,8 +18217,11 @@
       <c r="BJ92" s="4">
         <v>1</v>
       </c>
+      <c r="BK92" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>421</v>
       </c>
@@ -18113,8 +18405,11 @@
       <c r="BJ93" s="4">
         <v>1</v>
       </c>
+      <c r="BK93" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>429</v>
       </c>
@@ -18292,8 +18587,11 @@
       <c r="BJ94" s="4">
         <v>2</v>
       </c>
+      <c r="BK94" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>440</v>
       </c>
@@ -18477,8 +18775,11 @@
       <c r="BJ95" s="4">
         <v>2</v>
       </c>
+      <c r="BK95" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>445</v>
       </c>
@@ -18662,8 +18963,11 @@
       <c r="BJ96" s="4">
         <v>1</v>
       </c>
+      <c r="BK96" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>452</v>
       </c>
@@ -18841,8 +19145,11 @@
       <c r="BJ97" s="4">
         <v>2</v>
       </c>
+      <c r="BK97" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>455</v>
       </c>
@@ -19020,8 +19327,11 @@
       <c r="BJ98" s="4">
         <v>1</v>
       </c>
+      <c r="BK98" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>458</v>
       </c>
@@ -19199,8 +19509,11 @@
       <c r="BJ99" s="4">
         <v>1</v>
       </c>
+      <c r="BK99" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>462</v>
       </c>
@@ -19384,8 +19697,11 @@
       <c r="BJ100" s="4">
         <v>2</v>
       </c>
+      <c r="BK100" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>465</v>
       </c>
@@ -19563,8 +19879,11 @@
       <c r="BJ101" s="4">
         <v>1</v>
       </c>
+      <c r="BK101" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>466</v>
       </c>
@@ -19748,8 +20067,11 @@
       <c r="BJ102" s="4">
         <v>1</v>
       </c>
+      <c r="BK102" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>475</v>
       </c>
@@ -19897,8 +20219,11 @@
       <c r="BJ103" s="4">
         <v>2</v>
       </c>
+      <c r="BK103" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>477</v>
       </c>
@@ -20082,8 +20407,11 @@
       <c r="BJ104" s="4">
         <v>1</v>
       </c>
+      <c r="BK104" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>480</v>
       </c>
@@ -20261,8 +20589,11 @@
       <c r="BJ105" s="4">
         <v>2</v>
       </c>
+      <c r="BK105" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>483</v>
       </c>
@@ -20446,8 +20777,11 @@
       <c r="BJ106" s="4">
         <v>2</v>
       </c>
+      <c r="BK106" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>493</v>
       </c>
@@ -20589,8 +20923,11 @@
       <c r="BJ107" s="4">
         <v>1</v>
       </c>
+      <c r="BK107" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>499</v>
       </c>
@@ -20768,8 +21105,11 @@
       <c r="BJ108" s="4">
         <v>1</v>
       </c>
+      <c r="BK108" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>501</v>
       </c>
@@ -20905,8 +21245,11 @@
       <c r="BJ109" s="4">
         <v>1</v>
       </c>
+      <c r="BK109" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>502</v>
       </c>
@@ -21070,8 +21413,11 @@
       <c r="BJ110" s="4">
         <v>1</v>
       </c>
+      <c r="BK110" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>505</v>
       </c>
@@ -21255,8 +21601,11 @@
       <c r="BJ111" s="4">
         <v>2</v>
       </c>
+      <c r="BK111" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>506</v>
       </c>
@@ -21425,8 +21774,11 @@
       <c r="BJ112" s="4">
         <v>2</v>
       </c>
+      <c r="BK112" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>512</v>
       </c>
@@ -21586,8 +21938,11 @@
       <c r="BJ113" s="4">
         <v>2</v>
       </c>
+      <c r="BK113" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>515</v>
       </c>
@@ -21771,8 +22126,11 @@
       <c r="BJ114" s="4">
         <v>2</v>
       </c>
+      <c r="BK114" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>518</v>
       </c>
@@ -21950,8 +22308,11 @@
       <c r="BJ115" s="4">
         <v>1</v>
       </c>
+      <c r="BK115" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>520</v>
       </c>
@@ -22135,8 +22496,11 @@
       <c r="BJ116" s="4">
         <v>2</v>
       </c>
+      <c r="BK116" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>521</v>
       </c>
@@ -22314,8 +22678,11 @@
       <c r="BJ117" s="4">
         <v>2</v>
       </c>
+      <c r="BK117" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>522</v>
       </c>
@@ -22493,8 +22860,11 @@
       <c r="BJ118" s="4">
         <v>2</v>
       </c>
+      <c r="BK118" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>523</v>
       </c>
@@ -22678,8 +23048,11 @@
       <c r="BJ119" s="4">
         <v>2</v>
       </c>
+      <c r="BK119" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>526</v>
       </c>
@@ -22857,8 +23230,11 @@
       <c r="BJ120" s="4">
         <v>2</v>
       </c>
+      <c r="BK120" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>527</v>
       </c>
@@ -23036,8 +23412,11 @@
       <c r="BJ121" s="4">
         <v>1</v>
       </c>
+      <c r="BK121" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>528</v>
       </c>
@@ -23221,8 +23600,11 @@
       <c r="BJ122" s="4">
         <v>1</v>
       </c>
+      <c r="BK122" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>530</v>
       </c>
@@ -23406,8 +23788,11 @@
       <c r="BJ123" s="4">
         <v>2</v>
       </c>
+      <c r="BK123" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>532</v>
       </c>
@@ -23588,8 +23973,11 @@
       <c r="BJ124" s="4">
         <v>2</v>
       </c>
+      <c r="BK124" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>535</v>
       </c>
@@ -23699,8 +24087,11 @@
       <c r="BJ125" s="4">
         <v>1</v>
       </c>
+      <c r="BK125" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>537</v>
       </c>
@@ -23878,8 +24269,11 @@
       <c r="BJ126" s="4">
         <v>1</v>
       </c>
+      <c r="BK126" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>539</v>
       </c>
@@ -24063,8 +24457,11 @@
       <c r="BJ127" s="4">
         <v>0</v>
       </c>
+      <c r="BK127" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>540</v>
       </c>
@@ -24251,8 +24648,11 @@
       <c r="BJ128" s="4">
         <v>1</v>
       </c>
+      <c r="BK128" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>541</v>
       </c>
@@ -24430,8 +24830,11 @@
       <c r="BJ129" s="4">
         <v>2</v>
       </c>
+      <c r="BK129" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>542</v>
       </c>
@@ -24609,8 +25012,11 @@
       <c r="BJ130" s="4">
         <v>2</v>
       </c>
+      <c r="BK130" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>543</v>
       </c>
@@ -24794,8 +25200,11 @@
       <c r="BJ131" s="4">
         <v>2</v>
       </c>
+      <c r="BK131" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>545</v>
       </c>
@@ -24979,8 +25388,11 @@
       <c r="BJ132" s="4">
         <v>2</v>
       </c>
+      <c r="BK132" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>549</v>
       </c>
@@ -25164,8 +25576,11 @@
       <c r="BJ133" s="4">
         <v>1</v>
       </c>
+      <c r="BK133" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>559</v>
       </c>
@@ -25349,8 +25764,11 @@
       <c r="BJ134" s="4">
         <v>2</v>
       </c>
+      <c r="BK134" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>565</v>
       </c>
@@ -25528,8 +25946,11 @@
       <c r="BJ135" s="4">
         <v>2</v>
       </c>
+      <c r="BK135" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>566</v>
       </c>
@@ -25713,8 +26134,11 @@
       <c r="BJ136" s="4">
         <v>1</v>
       </c>
+      <c r="BK136" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>567</v>
       </c>
@@ -25874,8 +26298,11 @@
       <c r="BJ137" s="4">
         <v>2</v>
       </c>
+      <c r="BK137" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>569</v>
       </c>
@@ -26041,8 +26468,11 @@
       <c r="BJ138" s="4">
         <v>2</v>
       </c>
+      <c r="BK138" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>571</v>
       </c>
@@ -26224,8 +26654,11 @@
       <c r="BJ139" s="4">
         <v>2</v>
       </c>
+      <c r="BK139" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>572</v>
       </c>
@@ -26392,8 +26825,11 @@
       <c r="BJ140" s="4">
         <v>2</v>
       </c>
+      <c r="BK140" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>573</v>
       </c>
@@ -26557,8 +26993,11 @@
       <c r="BJ141" s="4">
         <v>1</v>
       </c>
+      <c r="BK141" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>575</v>
       </c>
@@ -26736,8 +27175,11 @@
       <c r="BJ142" s="4">
         <v>2</v>
       </c>
+      <c r="BK142" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>579</v>
       </c>
@@ -26921,8 +27363,11 @@
       <c r="BJ143" s="4">
         <v>2</v>
       </c>
+      <c r="BK143" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>581</v>
       </c>
@@ -27106,8 +27551,11 @@
       <c r="BJ144" s="4">
         <v>2</v>
       </c>
+      <c r="BK144" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>586</v>
       </c>
@@ -27288,8 +27736,11 @@
       <c r="BJ145" s="4">
         <v>2</v>
       </c>
+      <c r="BK145" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>587</v>
       </c>
@@ -27467,8 +27918,11 @@
       <c r="BJ146" s="4">
         <v>2</v>
       </c>
+      <c r="BK146" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>588</v>
       </c>
@@ -27652,8 +28106,11 @@
       <c r="BJ147" s="4">
         <v>2</v>
       </c>
+      <c r="BK147" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>594</v>
       </c>
@@ -27837,8 +28294,11 @@
       <c r="BJ148" s="4">
         <v>2</v>
       </c>
+      <c r="BK148" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>601</v>
       </c>
@@ -28016,8 +28476,11 @@
       <c r="BJ149" s="4">
         <v>2</v>
       </c>
+      <c r="BK149" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>604</v>
       </c>
@@ -28166,8 +28629,11 @@
       <c r="BJ150" s="4">
         <v>1</v>
       </c>
+      <c r="BK150" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>608</v>
       </c>
@@ -28351,8 +28817,11 @@
       <c r="BJ151" s="4">
         <v>2</v>
       </c>
+      <c r="BK151" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>610</v>
       </c>
@@ -28491,8 +28960,11 @@
       <c r="BJ152" s="4">
         <v>2</v>
       </c>
+      <c r="BK152" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>612</v>
       </c>
@@ -28662,8 +29134,11 @@
       <c r="BJ153" s="4">
         <v>2</v>
       </c>
+      <c r="BK153" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>615</v>
       </c>
@@ -28812,8 +29287,11 @@
       <c r="BJ154" s="4">
         <v>2</v>
       </c>
+      <c r="BK154" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>620</v>
       </c>
@@ -28955,8 +29433,11 @@
       <c r="BJ155" s="4">
         <v>1</v>
       </c>
+      <c r="BK155" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>622</v>
       </c>
@@ -29092,8 +29573,11 @@
       <c r="BJ156" s="4">
         <v>2</v>
       </c>
+      <c r="BK156" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>623</v>
       </c>
@@ -29238,8 +29722,11 @@
       <c r="BJ157" s="4">
         <v>2</v>
       </c>
+      <c r="BK157" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>625</v>
       </c>
@@ -29393,8 +29880,11 @@
       <c r="BJ158" s="4">
         <v>2</v>
       </c>
+      <c r="BK158" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>627</v>
       </c>
@@ -29578,8 +30068,11 @@
       <c r="BJ159" s="4">
         <v>2</v>
       </c>
+      <c r="BK159" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>628</v>
       </c>
@@ -29763,8 +30256,11 @@
       <c r="BJ160" s="4">
         <v>2</v>
       </c>
+      <c r="BK160" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>630</v>
       </c>
@@ -29942,8 +30438,11 @@
       <c r="BJ161" s="4">
         <v>2</v>
       </c>
+      <c r="BK161" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>633</v>
       </c>
@@ -30126,6 +30625,9 @@
       </c>
       <c r="BJ162" s="4">
         <v>2</v>
+      </c>
+      <c r="BK162" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
